--- a/replication/temp/figureA4_multiple_imputation.xlsx
+++ b/replication/temp/figureA4_multiple_imputation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>hour</t>
   </si>
@@ -34,7 +34,55 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(nan)</t>
+    <t>(0.15)</t>
+  </si>
+  <si>
+    <t>(0.17)</t>
+  </si>
+  <si>
+    <t>(0.56)</t>
+  </si>
+  <si>
+    <t>(0.16)</t>
+  </si>
+  <si>
+    <t>(0.45)</t>
+  </si>
+  <si>
+    <t>(0.11)</t>
+  </si>
+  <si>
+    <t>(0.7)</t>
+  </si>
+  <si>
+    <t>(0.35)</t>
+  </si>
+  <si>
+    <t>(0.32)</t>
+  </si>
+  <si>
+    <t>(0.25)</t>
+  </si>
+  <si>
+    <t>(0.6)</t>
+  </si>
+  <si>
+    <t>(0.4)</t>
+  </si>
+  <si>
+    <t>(1.39)</t>
+  </si>
+  <si>
+    <t>(0.5)</t>
+  </si>
+  <si>
+    <t>(1.45)</t>
+  </si>
+  <si>
+    <t>(2.42)</t>
+  </si>
+  <si>
+    <t>(0.88)</t>
   </si>
 </sst>
 </file>
@@ -499,28 +547,28 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -560,31 +608,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">

--- a/replication/temp/figureA4_multiple_imputation.xlsx
+++ b/replication/temp/figureA4_multiple_imputation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>hour</t>
   </si>
@@ -34,55 +34,52 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(0.15)</t>
-  </si>
-  <si>
-    <t>(0.17)</t>
-  </si>
-  <si>
-    <t>(0.56)</t>
-  </si>
-  <si>
-    <t>(0.16)</t>
-  </si>
-  <si>
-    <t>(0.45)</t>
+    <t>(0.13)</t>
+  </si>
+  <si>
+    <t>(0.06)</t>
+  </si>
+  <si>
+    <t>(0.08)</t>
+  </si>
+  <si>
+    <t>(0.09)</t>
+  </si>
+  <si>
+    <t>(0.54)</t>
   </si>
   <si>
     <t>(0.11)</t>
   </si>
   <si>
-    <t>(0.7)</t>
-  </si>
-  <si>
-    <t>(0.35)</t>
-  </si>
-  <si>
-    <t>(0.32)</t>
-  </si>
-  <si>
-    <t>(0.25)</t>
-  </si>
-  <si>
-    <t>(0.6)</t>
-  </si>
-  <si>
-    <t>(0.4)</t>
-  </si>
-  <si>
-    <t>(1.39)</t>
-  </si>
-  <si>
-    <t>(0.5)</t>
-  </si>
-  <si>
-    <t>(1.45)</t>
-  </si>
-  <si>
-    <t>(2.42)</t>
-  </si>
-  <si>
-    <t>(0.88)</t>
+    <t>(1.26)</t>
+  </si>
+  <si>
+    <t>(0.55)</t>
+  </si>
+  <si>
+    <t>(0.37)</t>
+  </si>
+  <si>
+    <t>(0.3)</t>
+  </si>
+  <si>
+    <t>(0.27)</t>
+  </si>
+  <si>
+    <t>(0.83)</t>
+  </si>
+  <si>
+    <t>(0.62)</t>
+  </si>
+  <si>
+    <t>(0.23)</t>
+  </si>
+  <si>
+    <t>(1.62)</t>
+  </si>
+  <si>
+    <t>(1.43)</t>
   </si>
 </sst>
 </file>
@@ -556,19 +553,19 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -620,19 +617,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -640,10 +637,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C7">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="D7">
         <v>797</v>
@@ -652,19 +649,19 @@
         <v>812</v>
       </c>
       <c r="F7">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G7">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H7">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="I7">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="J7">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
